--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1950371.463282504</v>
+        <v>1953776.954406953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>120.6676984421424</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>134.4256712723517</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.84003136202615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.10798889984626</v>
+        <v>43.1542554700116</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>235.4745188564438</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>33.21446231455224</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>96.36163317610354</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>165.6555085698114</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.56119467546894</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>36.15999212057508</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>35.19569619650073</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>17.39296944734651</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>193.0112554377997</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>184.5021248377799</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492316</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.9083821604497</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.4425172951282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>80.44051947539694</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492316</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.41670903610036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>196.6984507139492</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>189.7529499647457</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>175.8295459033366</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>175.8295459033366</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,7 +4333,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2330.159407527177</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2076.397622165268</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1745.334734821698</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1745.334734821698</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1745.334734821698</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1745.334734821698</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2685.928900210297</v>
+        <v>2653.558933977807</v>
       </c>
       <c r="S5" t="n">
-        <v>2509.751412524467</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="T5" t="n">
-        <v>2509.751412524467</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="U5" t="n">
-        <v>2509.751412524467</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="V5" t="n">
-        <v>2509.751412524467</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="W5" t="n">
-        <v>2509.751412524467</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="X5" t="n">
-        <v>2136.285654263387</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1746.146322287575</v>
+        <v>2477.381446291977</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5056,37 +5056,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,16 +5138,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.0900014994927</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1789.014669569541</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1567.248054139067</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1278.14518726471</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1278.14518726471</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>988.7280172277498</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>760.7384663297324</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7384663297324</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5275,49 +5275,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2006.06516444065</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N14" t="n">
-        <v>2985.817436667297</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996752</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763013</v>
+        <v>686.6690720494838</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>517.7328891215769</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>367.6162497092412</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>367.6162497092412</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>220.7263022113308</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>220.7263022113308</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1919.818221538466</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1728.132337365293</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1728.132337365293</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1439.029470490936</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1184.344982285049</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W16" t="n">
-        <v>894.9278122480885</v>
+        <v>1096.307087777741</v>
       </c>
       <c r="X16" t="n">
-        <v>666.9382613500711</v>
+        <v>868.3175368797235</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.145682206541</v>
+        <v>868.3175368797235</v>
       </c>
     </row>
     <row r="17">
@@ -5506,13 +5506,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5524,28 +5524,28 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300.048425655595</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C19" t="n">
-        <v>131.1122427276881</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D19" t="n">
-        <v>131.1122427276881</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E19" t="n">
-        <v>131.1122427276881</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F19" t="n">
-        <v>131.1122427276881</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>131.1122427276881</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1747.088925924109</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>1229.996508151736</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,16 +5740,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5767,37 +5767,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5940,22 +5940,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>508.5026418377232</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6059,22 +6059,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1769.97768344028</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1548.211068009806</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1259.108201135449</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1004.423712929562</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>715.0065428926017</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>487.0169919945844</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6229,25 +6229,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>243.9533396609698</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>243.9533396609698</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998319</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6472,43 +6472,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,43 +6709,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3944.053400686432</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.200663232024</v>
@@ -6791,16 +6791,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,19 +6873,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
@@ -6894,16 +6894,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6934,40 +6934,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.1091927888619</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924161</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
         <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844494</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>935.6537883236053</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258583</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.060509258583</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.643339221623</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>935.6537883236053</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>935.6537883236053</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972662</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2016.310259422545</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2996.062531649191</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3876.027181978646</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4270.801548335824</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,16 +7283,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998319</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7387,73 +7387,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y41" t="n">
         <v>2760.816196754296</v>
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7496,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,16 +7508,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7602,19 +7602,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7660,40 +7660,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>238.2160185885833</v>
+        <v>232.1124963760979</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8944,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>410.4190035206668</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>67.5366377670432</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>67.53663776704411</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>133.2530576400267</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>136.24998999713</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11062,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570123</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>24.11351676163048</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>117.1938202388518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.77216054947225</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>109.55931871782</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>202.1559798288227</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>25.57339791429507</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.266900493661979</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>19.11742609857856</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.14213605696662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>86.80630162323089</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270141</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874552.5358744255</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874552.5358744255</v>
+        <v>874552.5358744258</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874552.5358744258</v>
+        <v>874552.5358744257</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583908</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
-      </c>
       <c r="E2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="G2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="I2" t="n">
         <v>536060.4122974274</v>
       </c>
       <c r="J2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="K2" t="n">
         <v>536060.4122974274</v>
       </c>
       <c r="L2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="O2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974273</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-310830.3590119925</v>
       </c>
       <c r="C6" t="n">
+        <v>279137.5202025517</v>
+      </c>
+      <c r="D6" t="n">
         <v>279137.5202025516</v>
       </c>
-      <c r="D6" t="n">
-        <v>279137.5202025519</v>
-      </c>
       <c r="E6" t="n">
-        <v>-309992.0828490426</v>
+        <v>-309387.3234370102</v>
       </c>
       <c r="F6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="G6" t="n">
-        <v>417385.3311443641</v>
+        <v>417990.0905563959</v>
       </c>
       <c r="H6" t="n">
-        <v>417385.3311443638</v>
+        <v>417990.0905563964</v>
       </c>
       <c r="I6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563961</v>
       </c>
       <c r="J6" t="n">
-        <v>240962.1119517711</v>
+        <v>241566.8713638036</v>
       </c>
       <c r="K6" t="n">
-        <v>417385.3311443639</v>
+        <v>417990.0905563962</v>
       </c>
       <c r="L6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563965</v>
       </c>
       <c r="M6" t="n">
-        <v>287743.0163054194</v>
+        <v>288347.7757174515</v>
       </c>
       <c r="N6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563963</v>
       </c>
       <c r="O6" t="n">
-        <v>417385.3311443639</v>
+        <v>417990.0905563962</v>
       </c>
       <c r="P6" t="n">
-        <v>417385.331144364</v>
+        <v>417990.0905563959</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503741</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.26361780271881</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>82.02264908530609</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.9919488199112</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>43.37041367496546</v>
+        <v>11.32414710480011</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>51.04847948014725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.26394026025945</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>273.3694675023655</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35655,7 +35655,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>777.1371344188101</v>
+        <v>771.0336122063246</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35664,13 +35664,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35892,13 +35892,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>949.3401193508936</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552622</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>575.5896386552631</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>532.0150438593984</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>323.7860185257248</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>387.0442948008494</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493445</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38028,10 +38028,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>581.9206576708319</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
